--- a/res_img/resnet50-moreways-10k-size(1024)-medium/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(1024)-medium/动态.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(1024)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(1024)-medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FFFB6-8DE3-44BC-9892-21A1A69839B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA99C6C-D66D-4EA5-8129-AB8F9B88F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1521,16 +1531,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>146956</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1821,7 +1831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
@@ -1829,7 +1839,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2026,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2066,8 +2076,14 @@
       <c r="E14">
         <v>6.3E-2</v>
       </c>
+      <c r="F14">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G14">
+        <v>0.53100000000000003</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2083,8 +2099,14 @@
       <c r="E15">
         <v>7.9000000000000001E-2</v>
       </c>
+      <c r="F15">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.51700000000000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2099,6 +2121,38 @@
       </c>
       <c r="E16">
         <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>SUM(B14:B16)/3</f>
+        <v>0.5053333333333333</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:G19" si="0">SUM(C14:C16)/3</f>
+        <v>0.55133333333333334</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.9666666666666668E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.69133333333333324</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.52400000000000002</v>
       </c>
     </row>
   </sheetData>
